--- a/Channel_Coordinates.xlsx
+++ b/Channel_Coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biekeleenknegt/Documents/GitHub/SCM_GW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB30D9C-C8B6-B740-AA9B-C93EAF196C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E83C4B8E-E311-A74D-A8B8-DD3FACF02D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="500" windowWidth="24800" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>x_coor</t>
   </si>
@@ -56,13 +56,19 @@
   </si>
   <si>
     <t>Channel_id</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Webshop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +83,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,11 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -442,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -453,7 +465,7 @@
         <v>4.9040999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -464,7 +476,7 @@
         <v>4.3517000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -475,7 +487,7 @@
         <v>2.3521999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -486,7 +498,7 @@
         <v>-3.7038000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -497,7 +509,7 @@
         <v>12.568300000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -508,7 +520,7 @@
         <v>18.0686</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -519,7 +531,7 @@
         <v>12.4964</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -530,7 +542,7 @@
         <v>24.935400000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -539,6 +551,28 @@
       </c>
       <c r="C10">
         <v>13.404999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>51.3431</v>
+      </c>
+      <c r="C11">
+        <v>9.9320000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>51.3431</v>
+      </c>
+      <c r="C12">
+        <v>9.9320000000000004</v>
       </c>
     </row>
   </sheetData>
